--- a/BackTest/2020-01-25 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-25 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2272.50687152</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6177.50687152</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6302.50687152</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6349.50687152</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5526.35457152</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7567.40007152</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7591.03227152</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8732.92817152</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8710.121371519999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8938.547271519999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8938.547271519999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8649.897571519999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8552.897571519999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8552.897571519999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8552.897571519999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8537.20387152</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-7520.589571519999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7518.63147152</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-7519.96927152</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7637.35967152</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7635.35967152</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7646.90177152</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7555.25467152</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-7555.25467152</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7555.25467152</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8196.141671519999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-10197.04233982</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-10217.08053982</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-10200.08053982</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-10200.08053982</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-10245.35803982</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-10313.81593982</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-10382.29003982</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-10782.31673982</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10536.16253982</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-10431.16253982</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-10260.89723982</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-10233.03723982</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-11259.62623982</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-11465.75453982</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-11427.55453982</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-14655.40591962</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-14263.11151962</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-12909.89201962</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-11282.51631962</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-11282.51631962</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-13783.77261962</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-13504.30761962</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-10140.80741962</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-7094.124519619998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-5268.862019619998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-5405.224019619998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5405.224019619998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5456.859019619998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5638.922519619999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5799.017119619999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5676.416219619999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4899.353219619999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2710.290219619998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3318.108919619998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3350.013619619998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3200.013619619998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3500.013619619998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3498.013619619998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3498.013619619998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3581.708619619998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3605.770119619998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5480.314319619998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-5735.121119619997</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-7046.013819619997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-7046.013819619997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -9064,10 +9064,14 @@
         <v>-20769.28166117999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2124</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2124</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9097,11 +9101,19 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>2123</v>
+      </c>
+      <c r="J264" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9142,19 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>2124</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,10 +9183,14 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2124</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2124</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
@@ -9196,11 +9220,19 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2124</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9264,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9303,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,15 +9339,15 @@
         <v>-21420.90776117999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2124</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9337,7 +9381,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2124</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9371,12 +9417,12 @@
         <v>-20907.98356117999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2125</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2124</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9410,12 +9456,12 @@
         <v>-20907.98356117999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2132</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2124</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,12 +9495,12 @@
         <v>-20907.98356117999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2132</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2124</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,12 +9534,12 @@
         <v>-20907.98356117999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2132</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2124</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,12 +9573,12 @@
         <v>-23532.57856117999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2132</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2124</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9569,7 +9615,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2124</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9603,12 +9651,14 @@
         <v>-23215.59116118</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>2119</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2124</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,12 +9692,14 @@
         <v>-23265.59116118</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>2126</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2124</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9681,12 +9733,14 @@
         <v>-23094.69116118</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>2119</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2124</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9720,12 +9774,14 @@
         <v>-23219.67026118</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>2120</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2124</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9759,12 +9815,14 @@
         <v>-23219.67026118</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>2119</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2124</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9798,12 +9856,14 @@
         <v>-23019.67026118</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>2119</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2124</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9837,12 +9897,14 @@
         <v>-22329.11076118</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>2127</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2124</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9876,10 +9938,14 @@
         <v>-23155.00926118</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2130</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2124</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,12 +9979,14 @@
         <v>-23090.17656118</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>2129</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2124</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,10 +10020,14 @@
         <v>-23588.56246118</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2131</v>
+      </c>
+      <c r="J287" t="n">
+        <v>2124</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,12 +10061,14 @@
         <v>-23600.76636118</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>2130</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2124</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10028,12 +10102,14 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>2129</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2124</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10067,12 +10143,14 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>2130</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2124</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,12 +10184,14 @@
         <v>-24072.43446118</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>2130</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2124</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,12 +10225,14 @@
         <v>-22020.17946118</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>2129</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2124</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,12 +10266,14 @@
         <v>-22037.17946118</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>2133</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2124</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,12 +10307,12 @@
         <v>-20897.43976117999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2124</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,12 +10346,12 @@
         <v>-20797.43976117999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2134</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2124</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10301,12 +10385,12 @@
         <v>-20839.17886117999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2135</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2124</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,12 +10424,12 @@
         <v>-20795.42016117999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2134</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2124</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,12 +10463,12 @@
         <v>-21423.24506117999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2139</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2124</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,12 +10502,12 @@
         <v>-20853.74336117999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>2135</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2124</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10460,7 +10544,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2124</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,12 +10580,12 @@
         <v>-20518.65226118</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>2135</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2124</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,7 +10622,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2124</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,7 +10661,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2124</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10607,10 +10697,14 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2133</v>
+      </c>
+      <c r="J304" t="n">
+        <v>2124</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10644,10 +10738,14 @@
         <v>-20240.47316117999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2133</v>
+      </c>
+      <c r="J305" t="n">
+        <v>2124</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,7 +10782,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2124</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10718,12 +10818,12 @@
         <v>-19953.89486117999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>2141</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2124</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10757,12 +10857,12 @@
         <v>-20042.46806117999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>2136</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2124</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10796,12 +10896,12 @@
         <v>-20316.66266117999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>2135</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2124</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10835,12 +10935,14 @@
         <v>-20354.65256117999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>2134</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2124</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,12 +10976,14 @@
         <v>-20287.99326117999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>2133</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2124</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10913,12 +11017,14 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>2134</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2124</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10952,12 +11058,14 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>2137</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2124</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10991,12 +11099,12 @@
         <v>-19458.35276117999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2137</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2124</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11030,12 +11138,12 @@
         <v>-18762.58926117999</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>2138</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2124</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11069,12 +11177,12 @@
         <v>-18762.58926117999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>2148</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2124</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11111,7 +11219,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2124</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11148,7 +11258,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2124</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,7 +11297,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2124</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11222,7 +11336,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2124</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11259,7 +11375,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2124</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,7 +11414,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2124</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11333,7 +11453,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2124</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11370,7 +11492,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2124</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11407,7 +11531,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2124</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11444,7 +11570,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2124</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11481,7 +11609,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2124</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11518,7 +11648,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2124</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11555,7 +11687,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2124</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11589,10 +11723,14 @@
         <v>-18212.53596117999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2151</v>
+      </c>
+      <c r="J330" t="n">
+        <v>2124</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11626,12 +11764,14 @@
         <v>-17052.53596117999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>2152</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2124</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,7 +11808,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2124</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11705,7 +11847,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2124</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11739,10 +11883,14 @@
         <v>-15796.12866117999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2156</v>
+      </c>
+      <c r="J334" t="n">
+        <v>2124</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11779,7 +11927,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2124</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11813,16 +11963,22 @@
         <v>-17300.02886118</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>2153</v>
+      </c>
+      <c r="J336" t="n">
+        <v>2124</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L336" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
       <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
@@ -11848,11 +12004,19 @@
         <v>-17300.02886118</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>2147</v>
+      </c>
+      <c r="J337" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +12045,19 @@
         <v>-17345.22646117999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>2147</v>
+      </c>
+      <c r="J338" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11914,11 +12086,19 @@
         <v>-17477.57666118</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>2146</v>
+      </c>
+      <c r="J339" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11947,11 +12127,19 @@
         <v>-17419.34876117999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2144</v>
+      </c>
+      <c r="J340" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11980,11 +12168,19 @@
         <v>-17146.94426117999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2153</v>
+      </c>
+      <c r="J341" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12016,8 +12212,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12049,8 +12251,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +12287,19 @@
         <v>-17637.46206117999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2148</v>
+      </c>
+      <c r="J344" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12112,11 +12328,19 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2153</v>
+      </c>
+      <c r="J345" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12145,11 +12369,19 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2154</v>
+      </c>
+      <c r="J346" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12181,8 +12413,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12214,8 +12452,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12247,8 +12491,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12280,8 +12530,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +12569,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12346,8 +12608,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +12647,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12412,8 +12686,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12445,8 +12725,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12478,8 +12764,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +12803,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +12842,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12577,8 +12881,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +12920,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12643,8 +12959,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12676,8 +12998,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12709,8 +13037,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +13076,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12808,8 +13154,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +13193,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12874,8 +13232,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12907,8 +13271,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12940,8 +13310,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12973,8 +13349,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13006,8 +13388,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13039,8 +13427,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13072,8 +13466,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13105,8 +13505,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13138,8 +13544,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13171,8 +13583,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13204,8 +13622,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13237,8 +13661,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13270,8 +13700,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13303,8 +13739,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13336,8 +13778,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13369,8 +13817,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13402,8 +13856,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13435,8 +13895,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13468,8 +13934,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13498,11 +13970,19 @@
         <v>-19954.98247790999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2123</v>
+      </c>
+      <c r="J387" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13531,11 +14011,19 @@
         <v>-16674.04147791</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2122</v>
+      </c>
+      <c r="J388" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13567,8 +14055,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13600,8 +14094,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13633,8 +14133,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13666,8 +14172,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13699,8 +14211,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13732,8 +14250,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13765,8 +14289,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +14325,19 @@
         <v>-18361.34997791</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2122</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13828,11 +14366,19 @@
         <v>-19208.32527791</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2123</v>
+      </c>
+      <c r="J397" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13861,11 +14407,19 @@
         <v>-19208.32527791</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2115</v>
+      </c>
+      <c r="J398" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13894,11 +14448,19 @@
         <v>-18697.23537791</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2115</v>
+      </c>
+      <c r="J399" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13927,11 +14489,19 @@
         <v>-18697.23537791</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2119</v>
+      </c>
+      <c r="J400" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13960,11 +14530,19 @@
         <v>-19966.97597791</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2119</v>
+      </c>
+      <c r="J401" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13993,11 +14571,19 @@
         <v>-16862.97057791</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2117</v>
+      </c>
+      <c r="J402" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14029,8 +14615,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14062,8 +14654,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14095,8 +14693,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14128,8 +14732,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14161,8 +14771,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14194,8 +14810,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14227,8 +14849,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14260,8 +14888,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14293,8 +14927,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14326,8 +14966,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14359,8 +15005,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14392,8 +15044,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14425,8 +15083,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14458,8 +15122,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14491,8 +15161,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14524,8 +15200,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14557,8 +15239,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14590,8 +15278,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14623,8 +15317,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14656,8 +15356,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14689,8 +15395,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14722,8 +15434,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14755,8 +15473,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14788,8 +15512,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14821,8 +15551,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14854,8 +15590,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14887,8 +15629,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14920,8 +15668,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14953,8 +15707,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14983,11 +15743,19 @@
         <v>-11713.02658453</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2110</v>
+      </c>
+      <c r="J432" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +15784,19 @@
         <v>-11698.69868453</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2118</v>
+      </c>
+      <c r="J433" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15049,11 +15825,19 @@
         <v>-10698.49298453</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2125</v>
+      </c>
+      <c r="J434" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15082,11 +15866,19 @@
         <v>-10698.49298453</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2135</v>
+      </c>
+      <c r="J435" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15118,8 +15910,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15151,8 +15949,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15181,11 +15985,19 @@
         <v>-10774.54908453</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2135</v>
+      </c>
+      <c r="J438" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15217,8 +16029,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15250,8 +16068,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15283,8 +16107,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15316,8 +16146,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15349,8 +16185,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15382,8 +16224,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15415,8 +16263,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15448,8 +16302,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15481,8 +16341,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15514,8 +16380,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15547,8 +16419,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15580,8 +16458,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15613,8 +16497,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15646,8 +16536,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15679,8 +16575,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15712,8 +16614,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15745,8 +16653,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15778,8 +16692,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15811,8 +16731,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15844,8 +16770,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15874,11 +16806,17 @@
         <v>-3316.453284529997</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15907,11 +16845,17 @@
         <v>-3316.453284529997</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15940,11 +16884,17 @@
         <v>-3316.453284529997</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15973,11 +16923,17 @@
         <v>-10416.63068453</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16006,11 +16962,17 @@
         <v>-10802.32866736</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16039,11 +17001,17 @@
         <v>-10792.32866736</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16075,8 +17043,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16108,8 +17082,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16141,8 +17121,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16174,8 +17160,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16207,8 +17199,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16240,8 +17238,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16273,8 +17277,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16306,8 +17316,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16336,11 +17352,17 @@
         <v>-10793.00226736</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16372,8 +17394,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16402,13 +17430,19 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2124</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L475" t="n">
-        <v>1</v>
+        <v>1.026073446327684</v>
       </c>
       <c r="M475" t="inlineStr"/>
     </row>
@@ -16435,7 +17469,7 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16468,7 +17502,7 @@
         <v>-10886.18936736</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16501,7 +17535,7 @@
         <v>-11679.55586736</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16534,7 +17568,7 @@
         <v>-11682.53606736</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16567,7 +17601,7 @@
         <v>-11396.00096736</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16600,7 +17634,7 @@
         <v>-11345.92446736</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16633,7 +17667,7 @@
         <v>-11329.97406736</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16666,7 +17700,7 @@
         <v>-11330.24846736</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16699,7 +17733,7 @@
         <v>-13074.17446736</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17095,7 +18129,7 @@
         <v>-6639.060667359999</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17128,7 +18162,7 @@
         <v>-6660.330667359999</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17161,7 +18195,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17194,7 +18228,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17227,7 +18261,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17260,7 +18294,7 @@
         <v>-7118.20956736</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17293,7 +18327,7 @@
         <v>-6842.34176736</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17326,7 +18360,7 @@
         <v>-8027.991267359999</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17359,7 +18393,7 @@
         <v>-8027.991267359999</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17392,7 +18426,7 @@
         <v>-7432.455167359999</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17425,7 +18459,7 @@
         <v>-7432.455167359999</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17458,7 +18492,7 @@
         <v>-6620.176967359999</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17491,7 +18525,7 @@
         <v>-5420.176967359999</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17634,6 +18668,6 @@
       <c r="M512" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-25 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>-7567.40007152</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7591.03227152</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8732.92817152</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8710.121371519999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8938.547271519999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8938.547271519999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8649.897571519999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8552.897571519999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8552.897571519999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8552.897571519999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8537.20387152</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-7520.589571519999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-7518.63147152</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-7519.96927152</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-7637.35967152</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-7635.35967152</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7646.90177152</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7555.25467152</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-7555.25467152</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7555.25467152</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8196.141671519999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-12909.89201962</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-13504.30761962</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-10140.80741962</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-7094.124519619998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-5268.862019619998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-5405.224019619998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5405.224019619998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5456.859019619998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5638.922519619999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5799.017119619999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5676.416219619999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4899.353219619999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2710.290219619998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3318.108919619998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3350.013619619998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3200.013619619998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3500.013619619998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3498.013619619998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3498.013619619998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3581.708619619998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3605.770119619998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5480.314319619998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-5735.121119619997</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-7046.013819619997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-7046.013819619997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -9064,14 +9064,10 @@
         <v>-20769.28166117999</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2124</v>
-      </c>
-      <c r="J263" t="n">
-        <v>2124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9101,19 +9097,11 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2123</v>
-      </c>
-      <c r="J264" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9142,19 +9130,11 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2124</v>
-      </c>
-      <c r="J265" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9183,14 +9163,10 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>2124</v>
-      </c>
-      <c r="J266" t="n">
-        <v>2124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
@@ -9220,19 +9196,11 @@
         <v>-20269.28176117999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2124</v>
-      </c>
-      <c r="J267" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9264,447 +9232,383 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2126</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F269" t="n">
+        <v>300.5085</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-19568.01806118</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2126</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1852.8897</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-21420.90776117999</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2126</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2126</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F271" t="n">
+        <v>953.4494</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-21420.90776117999</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2128</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2132</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2128</v>
+      </c>
+      <c r="F272" t="n">
+        <v>512.9242</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-20907.98356117999</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2133</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2132</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F273" t="n">
+        <v>52.8451</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-20907.98356117999</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2128</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2132</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2128</v>
+      </c>
+      <c r="F274" t="n">
+        <v>46.6733</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-20907.98356117999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2132</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2132</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F275" t="n">
+        <v>497.9789</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-20907.98356117999</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2119</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2129</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2119</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2624.595</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-23532.57856117999</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2119</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2119</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2119</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2119</v>
+      </c>
+      <c r="F277" t="n">
+        <v>253.0852</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-23532.57856117999</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
         <v>2124</v>
       </c>
-      <c r="K268" t="inlineStr">
+      <c r="C278" t="n">
+        <v>2126</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2126</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2124</v>
+      </c>
+      <c r="F278" t="n">
+        <v>316.9874</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-23215.59116118</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>2119</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2119</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2120</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2119</v>
+      </c>
+      <c r="F279" t="n">
+        <v>50</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-23265.59116118</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2126</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>2126</v>
-      </c>
-      <c r="C269" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D269" t="n">
-        <v>2130</v>
-      </c>
-      <c r="E269" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F269" t="n">
-        <v>300.5085</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-19568.01806118</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>2126</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2125</v>
-      </c>
-      <c r="D270" t="n">
-        <v>2130</v>
-      </c>
-      <c r="E270" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1852.8897</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-21420.90776117999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>2126</v>
-      </c>
-      <c r="C271" t="n">
-        <v>2125</v>
-      </c>
-      <c r="D271" t="n">
-        <v>2126</v>
-      </c>
-      <c r="E271" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F271" t="n">
-        <v>953.4494</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-21420.90776117999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>2128</v>
-      </c>
-      <c r="C272" t="n">
-        <v>2132</v>
-      </c>
-      <c r="D272" t="n">
-        <v>2133</v>
-      </c>
-      <c r="E272" t="n">
-        <v>2128</v>
-      </c>
-      <c r="F272" t="n">
-        <v>512.9242</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-20907.98356117999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>2133</v>
-      </c>
-      <c r="C273" t="n">
-        <v>2132</v>
-      </c>
-      <c r="D273" t="n">
-        <v>2133</v>
-      </c>
-      <c r="E273" t="n">
-        <v>2132</v>
-      </c>
-      <c r="F273" t="n">
-        <v>52.8451</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-20907.98356117999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>2128</v>
-      </c>
-      <c r="C274" t="n">
-        <v>2132</v>
-      </c>
-      <c r="D274" t="n">
-        <v>2132</v>
-      </c>
-      <c r="E274" t="n">
-        <v>2128</v>
-      </c>
-      <c r="F274" t="n">
-        <v>46.6733</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-20907.98356117999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>2132</v>
-      </c>
-      <c r="C275" t="n">
-        <v>2132</v>
-      </c>
-      <c r="D275" t="n">
-        <v>2132</v>
-      </c>
-      <c r="E275" t="n">
-        <v>2132</v>
-      </c>
-      <c r="F275" t="n">
-        <v>497.9789</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-20907.98356117999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>2129</v>
-      </c>
-      <c r="C276" t="n">
-        <v>2119</v>
-      </c>
-      <c r="D276" t="n">
-        <v>2129</v>
-      </c>
-      <c r="E276" t="n">
-        <v>2119</v>
-      </c>
-      <c r="F276" t="n">
-        <v>2624.595</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-23532.57856117999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>2119</v>
-      </c>
-      <c r="C277" t="n">
-        <v>2119</v>
-      </c>
-      <c r="D277" t="n">
-        <v>2119</v>
-      </c>
-      <c r="E277" t="n">
-        <v>2119</v>
-      </c>
-      <c r="F277" t="n">
-        <v>253.0852</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-23532.57856117999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>2124</v>
-      </c>
-      <c r="C278" t="n">
-        <v>2126</v>
-      </c>
-      <c r="D278" t="n">
-        <v>2126</v>
-      </c>
-      <c r="E278" t="n">
-        <v>2124</v>
-      </c>
-      <c r="F278" t="n">
-        <v>316.9874</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-23215.59116118</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2119</v>
-      </c>
-      <c r="J278" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>2120</v>
-      </c>
-      <c r="C279" t="n">
-        <v>2119</v>
-      </c>
-      <c r="D279" t="n">
-        <v>2120</v>
-      </c>
-      <c r="E279" t="n">
-        <v>2119</v>
-      </c>
-      <c r="F279" t="n">
-        <v>50</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-23265.59116118</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2126</v>
-      </c>
-      <c r="J279" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9739,7 +9643,7 @@
         <v>2119</v>
       </c>
       <c r="J280" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9780,7 +9684,7 @@
         <v>2120</v>
       </c>
       <c r="J281" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9821,7 +9725,7 @@
         <v>2119</v>
       </c>
       <c r="J282" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9862,7 +9766,7 @@
         <v>2119</v>
       </c>
       <c r="J283" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9903,7 +9807,7 @@
         <v>2127</v>
       </c>
       <c r="J284" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9938,13 +9842,11 @@
         <v>-23155.00926118</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9979,13 +9881,11 @@
         <v>-23090.17656118</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10020,13 +9920,11 @@
         <v>-23588.56246118</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10061,13 +9959,11 @@
         <v>-23600.76636118</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10102,13 +9998,11 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10143,13 +10037,11 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10184,13 +10076,11 @@
         <v>-24072.43446118</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>2130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10231,7 +10121,7 @@
         <v>2129</v>
       </c>
       <c r="J292" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10272,7 +10162,7 @@
         <v>2133</v>
       </c>
       <c r="J293" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10307,11 +10197,13 @@
         <v>-20897.43976117999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2130</v>
+      </c>
       <c r="J294" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10350,7 +10242,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10389,7 +10281,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10428,7 +10320,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10467,7 +10359,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10506,7 +10398,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10545,7 +10437,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10584,7 +10476,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10623,7 +10515,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10662,7 +10554,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10697,13 +10589,11 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>2133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10738,13 +10628,11 @@
         <v>-20240.47316117999</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>2133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10783,7 +10671,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10822,7 +10710,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10861,7 +10749,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10900,7 +10788,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10935,13 +10823,11 @@
         <v>-20354.65256117999</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>2134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10976,13 +10862,11 @@
         <v>-20287.99326117999</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11017,13 +10901,11 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>2134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11058,13 +10940,11 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>2137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11103,7 +10983,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11142,7 +11022,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11181,7 +11061,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11220,7 +11100,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11259,7 +11139,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11294,19 +11174,19 @@
         <v>-18191.23926117999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L319" t="n">
-        <v>1</v>
+        <v>1.011989145823502</v>
       </c>
       <c r="M319" t="inlineStr"/>
     </row>
@@ -11333,17 +11213,11 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11372,17 +11246,11 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11411,17 +11279,11 @@
         <v>-18172.68476117999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11450,17 +11312,11 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11489,17 +11345,11 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11528,17 +11378,11 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11567,17 +11411,11 @@
         <v>-19004.23166117999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11606,17 +11444,11 @@
         <v>-18379.58246117999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11645,17 +11477,11 @@
         <v>-18493.94816117999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11684,17 +11510,11 @@
         <v>-18608.31396117999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11723,19 +11543,11 @@
         <v>-18212.53596117999</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>2151</v>
-      </c>
-      <c r="J330" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11764,19 +11576,11 @@
         <v>-17052.53596117999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>2152</v>
-      </c>
-      <c r="J331" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11805,17 +11609,11 @@
         <v>-15852.53596117999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11847,14 +11645,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11883,19 +11675,11 @@
         <v>-15796.12866117999</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>2156</v>
-      </c>
-      <c r="J334" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11927,14 +11711,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11963,19 +11741,11 @@
         <v>-17300.02886118</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>2153</v>
-      </c>
-      <c r="J336" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12004,19 +11774,11 @@
         <v>-17300.02886118</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>2147</v>
-      </c>
-      <c r="J337" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12045,19 +11807,11 @@
         <v>-17345.22646117999</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2147</v>
-      </c>
-      <c r="J338" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12086,19 +11840,11 @@
         <v>-17477.57666118</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>2146</v>
-      </c>
-      <c r="J339" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12127,19 +11873,11 @@
         <v>-17419.34876117999</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>2144</v>
-      </c>
-      <c r="J340" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12168,19 +11906,11 @@
         <v>-17146.94426117999</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>2153</v>
-      </c>
-      <c r="J341" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12209,17 +11939,11 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12248,17 +11972,11 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12287,19 +12005,11 @@
         <v>-17637.46206117999</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>2148</v>
-      </c>
-      <c r="J344" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12328,19 +12038,11 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>2153</v>
-      </c>
-      <c r="J345" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12369,19 +12071,11 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>2154</v>
-      </c>
-      <c r="J346" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12410,17 +12104,11 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12449,17 +12137,11 @@
         <v>-17582.51726117999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12488,17 +12170,11 @@
         <v>-18037.88386117999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12527,17 +12203,11 @@
         <v>-17890.98256117999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12566,17 +12236,11 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12605,17 +12269,11 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12644,17 +12302,11 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12683,17 +12335,11 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12722,17 +12368,11 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12761,17 +12401,11 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12800,17 +12434,11 @@
         <v>-17596.12446117999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12839,17 +12467,11 @@
         <v>-18596.12446117999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12878,17 +12500,11 @@
         <v>-18595.12446117999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12917,17 +12533,11 @@
         <v>-13970.39787790999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12956,17 +12566,11 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12995,17 +12599,11 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13037,14 +12635,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13076,14 +12668,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13115,14 +12701,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13151,17 +12731,11 @@
         <v>-14170.67277790999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13193,14 +12767,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13232,14 +12800,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13271,14 +12833,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13310,14 +12866,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13349,14 +12899,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13388,14 +12932,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13427,14 +12965,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13466,14 +12998,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13505,14 +13031,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13544,14 +13064,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13583,14 +13097,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13622,14 +13130,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13661,14 +13163,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13700,14 +13196,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13739,14 +13229,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13778,14 +13262,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13817,14 +13295,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13856,14 +13328,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13895,14 +13361,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13934,14 +13394,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13970,19 +13424,11 @@
         <v>-19954.98247790999</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>2123</v>
-      </c>
-      <c r="J387" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14011,19 +13457,11 @@
         <v>-16674.04147791</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>2122</v>
-      </c>
-      <c r="J388" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14055,14 +13493,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14094,14 +13526,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14133,14 +13559,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14172,14 +13592,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14211,14 +13625,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14250,14 +13658,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14289,14 +13691,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14325,19 +13721,11 @@
         <v>-18361.34997791</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>2122</v>
-      </c>
-      <c r="J396" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14366,19 +13754,11 @@
         <v>-19208.32527791</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>2123</v>
-      </c>
-      <c r="J397" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14407,19 +13787,11 @@
         <v>-19208.32527791</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>2115</v>
-      </c>
-      <c r="J398" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14448,19 +13820,11 @@
         <v>-18697.23537791</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>2115</v>
-      </c>
-      <c r="J399" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14495,13 +13859,9 @@
         <v>2119</v>
       </c>
       <c r="J400" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2119</v>
+      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +13896,11 @@
         <v>2119</v>
       </c>
       <c r="J401" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -14577,7 +13937,7 @@
         <v>2117</v>
       </c>
       <c r="J402" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14616,7 +13976,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14655,7 +14015,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14694,7 +14054,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14733,7 +14093,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14772,7 +14132,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14811,7 +14171,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14850,7 +14210,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14889,7 +14249,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14928,7 +14288,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14967,7 +14327,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15006,7 +14366,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15045,7 +14405,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15084,7 +14444,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15123,7 +14483,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15162,7 +14522,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15201,7 +14561,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15240,7 +14600,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15279,7 +14639,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15318,7 +14678,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15357,7 +14717,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15396,7 +14756,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15435,7 +14795,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15474,7 +14834,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15513,7 +14873,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15552,7 +14912,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15591,7 +14951,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15630,7 +14990,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15669,7 +15029,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15708,7 +15068,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15743,13 +15103,11 @@
         <v>-11713.02658453</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>2110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15784,13 +15142,11 @@
         <v>-11698.69868453</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>2118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15825,13 +15181,11 @@
         <v>-10698.49298453</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15866,13 +15220,11 @@
         <v>-10698.49298453</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>2135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15911,7 +15263,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15950,7 +15302,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15985,13 +15337,11 @@
         <v>-10774.54908453</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>2135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16030,7 +15380,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16069,7 +15419,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16104,19 +15454,19 @@
         <v>-8419.312884529996</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>1</v>
+        <v>1.014348749410099</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
@@ -16143,17 +15493,11 @@
         <v>-9491.111484529996</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16182,17 +15526,11 @@
         <v>-9521.111484529996</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16221,17 +15559,11 @@
         <v>-9418.318484529997</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16260,17 +15592,11 @@
         <v>-9007.574784529996</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16299,17 +15625,11 @@
         <v>-9083.928584529996</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16338,17 +15658,11 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16377,17 +15691,11 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16416,17 +15724,11 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16455,17 +15757,11 @@
         <v>-8521.009584529997</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16494,17 +15790,11 @@
         <v>-8087.888584529996</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16536,14 +15826,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16575,14 +15859,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16614,14 +15892,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16650,17 +15922,11 @@
         <v>-5691.894684529996</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16689,17 +15955,11 @@
         <v>-5713.198684529996</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16731,14 +15991,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16770,14 +16024,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16809,14 +16057,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16848,14 +16090,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16887,14 +16123,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16926,14 +16156,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16965,14 +16189,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17004,14 +16222,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17043,14 +16255,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17082,14 +16288,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17118,17 +16318,11 @@
         <v>-10863.32916736</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17157,17 +16351,11 @@
         <v>-10862.99616736</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17199,14 +16387,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17235,17 +16417,11 @@
         <v>-11182.74616736</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17277,14 +16453,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17316,14 +16486,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17355,14 +16519,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17394,14 +16552,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17430,19 +16582,13 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2124</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
-        <v>1.026073446327684</v>
+        <v>1</v>
       </c>
       <c r="M475" t="inlineStr"/>
     </row>
@@ -17469,7 +16615,7 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17502,7 +16648,7 @@
         <v>-10886.18936736</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17535,7 +16681,7 @@
         <v>-11679.55586736</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17568,7 +16714,7 @@
         <v>-11682.53606736</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17601,7 +16747,7 @@
         <v>-11396.00096736</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17634,7 +16780,7 @@
         <v>-11345.92446736</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17667,7 +16813,7 @@
         <v>-11329.97406736</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17700,7 +16846,7 @@
         <v>-11330.24846736</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18129,7 +17275,7 @@
         <v>-6639.060667359999</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18162,7 +17308,7 @@
         <v>-6660.330667359999</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18195,7 +17341,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18228,7 +17374,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18261,7 +17407,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18294,7 +17440,7 @@
         <v>-7118.20956736</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18327,7 +17473,7 @@
         <v>-6842.34176736</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18360,7 +17506,7 @@
         <v>-8027.991267359999</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18393,7 +17539,7 @@
         <v>-8027.991267359999</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18426,7 +17572,7 @@
         <v>-7432.455167359999</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18459,7 +17605,7 @@
         <v>-7432.455167359999</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18492,7 +17638,7 @@
         <v>-6620.176967359999</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18525,7 +17671,7 @@
         <v>-5420.176967359999</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18668,6 +17814,6 @@
       <c r="M512" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-25 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>-2272.50687152</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6177.50687152</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6302.50687152</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6349.50687152</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5526.35457152</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6380.35457152</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-10200.08053982</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-10245.35803982</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-10313.81593982</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-10382.29003982</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-10782.31673982</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-10260.89723982</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-10233.03723982</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-11259.62623982</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-11465.75453982</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-11427.55453982</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-11304.77353981999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-11660.50573982</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-11984.58163982</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-12002.36243982</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-12022.36243982</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-12028.63423982</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -9842,9 +9842,11 @@
         <v>-23155.00926118</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2130</v>
+      </c>
       <c r="J285" t="n">
         <v>2119</v>
       </c>
@@ -9881,9 +9883,11 @@
         <v>-23090.17656118</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>2129</v>
+      </c>
       <c r="J286" t="n">
         <v>2119</v>
       </c>
@@ -9920,9 +9924,11 @@
         <v>-23588.56246118</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2131</v>
+      </c>
       <c r="J287" t="n">
         <v>2119</v>
       </c>
@@ -9959,9 +9965,11 @@
         <v>-23600.76636118</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>2130</v>
+      </c>
       <c r="J288" t="n">
         <v>2119</v>
       </c>
@@ -9998,9 +10006,11 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>2129</v>
+      </c>
       <c r="J289" t="n">
         <v>2119</v>
       </c>
@@ -10037,9 +10047,11 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>2130</v>
+      </c>
       <c r="J290" t="n">
         <v>2119</v>
       </c>
@@ -10076,9 +10088,11 @@
         <v>-24072.43446118</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>2130</v>
+      </c>
       <c r="J291" t="n">
         <v>2119</v>
       </c>
@@ -10238,9 +10252,11 @@
         <v>-20797.43976117999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2134</v>
+      </c>
       <c r="J295" t="n">
         <v>2119</v>
       </c>
@@ -10277,9 +10293,11 @@
         <v>-20839.17886117999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2135</v>
+      </c>
       <c r="J296" t="n">
         <v>2119</v>
       </c>
@@ -10316,9 +10334,11 @@
         <v>-20795.42016117999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2134</v>
+      </c>
       <c r="J297" t="n">
         <v>2119</v>
       </c>
@@ -10355,9 +10375,11 @@
         <v>-21423.24506117999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2139</v>
+      </c>
       <c r="J298" t="n">
         <v>2119</v>
       </c>
@@ -10394,9 +10416,11 @@
         <v>-20853.74336117999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>2135</v>
+      </c>
       <c r="J299" t="n">
         <v>2119</v>
       </c>
@@ -10433,9 +10457,11 @@
         <v>-20985.43066117999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2137</v>
+      </c>
       <c r="J300" t="n">
         <v>2119</v>
       </c>
@@ -10472,9 +10498,11 @@
         <v>-20518.65226118</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2135</v>
+      </c>
       <c r="J301" t="n">
         <v>2119</v>
       </c>
@@ -10511,9 +10539,11 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2137</v>
+      </c>
       <c r="J302" t="n">
         <v>2119</v>
       </c>
@@ -10550,9 +10580,11 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2133</v>
+      </c>
       <c r="J303" t="n">
         <v>2119</v>
       </c>
@@ -10589,9 +10621,11 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2133</v>
+      </c>
       <c r="J304" t="n">
         <v>2119</v>
       </c>
@@ -10628,9 +10662,11 @@
         <v>-20240.47316117999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2133</v>
+      </c>
       <c r="J305" t="n">
         <v>2119</v>
       </c>
@@ -10667,9 +10703,11 @@
         <v>-19933.56026117999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2139</v>
+      </c>
       <c r="J306" t="n">
         <v>2119</v>
       </c>
@@ -10706,9 +10744,11 @@
         <v>-19953.89486117999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2141</v>
+      </c>
       <c r="J307" t="n">
         <v>2119</v>
       </c>
@@ -10745,9 +10785,11 @@
         <v>-20042.46806117999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>2136</v>
+      </c>
       <c r="J308" t="n">
         <v>2119</v>
       </c>
@@ -10784,9 +10826,11 @@
         <v>-20316.66266117999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2135</v>
+      </c>
       <c r="J309" t="n">
         <v>2119</v>
       </c>
@@ -10823,9 +10867,11 @@
         <v>-20354.65256117999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2134</v>
+      </c>
       <c r="J310" t="n">
         <v>2119</v>
       </c>
@@ -10862,9 +10908,11 @@
         <v>-20287.99326117999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2133</v>
+      </c>
       <c r="J311" t="n">
         <v>2119</v>
       </c>
@@ -10901,9 +10949,11 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2134</v>
+      </c>
       <c r="J312" t="n">
         <v>2119</v>
       </c>
@@ -10940,9 +10990,11 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2137</v>
+      </c>
       <c r="J313" t="n">
         <v>2119</v>
       </c>
@@ -10979,9 +11031,11 @@
         <v>-19458.35276117999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2137</v>
+      </c>
       <c r="J314" t="n">
         <v>2119</v>
       </c>
@@ -11018,9 +11072,11 @@
         <v>-18762.58926117999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2138</v>
+      </c>
       <c r="J315" t="n">
         <v>2119</v>
       </c>
@@ -11174,7 +11230,7 @@
         <v>-18191.23926117999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
@@ -11182,11 +11238,11 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L319" t="n">
-        <v>1.011989145823502</v>
+        <v>1</v>
       </c>
       <c r="M319" t="inlineStr"/>
     </row>
@@ -11213,11 +11269,17 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11246,11 +11308,17 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +11347,17 @@
         <v>-18172.68476117999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11312,11 +11386,17 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11345,11 +11425,17 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11378,11 +11464,17 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11411,11 +11503,17 @@
         <v>-19004.23166117999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11444,11 +11542,17 @@
         <v>-18379.58246117999</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11477,11 +11581,17 @@
         <v>-18493.94816117999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11510,11 +11620,17 @@
         <v>-18608.31396117999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11543,11 +11659,17 @@
         <v>-18212.53596117999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11576,11 +11698,17 @@
         <v>-17052.53596117999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11609,11 +11737,17 @@
         <v>-15852.53596117999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11645,8 +11779,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11678,8 +11818,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11711,8 +11857,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11744,8 +11896,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11777,8 +11935,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11810,8 +11974,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11843,8 +12013,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11876,8 +12052,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +12088,17 @@
         <v>-17146.94426117999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11939,11 +12127,17 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +12166,17 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12008,8 +12208,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +12244,17 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12071,11 +12283,17 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +12322,17 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +12361,17 @@
         <v>-17582.51726117999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12170,11 +12400,17 @@
         <v>-18037.88386117999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12203,11 +12439,17 @@
         <v>-17890.98256117999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +12478,17 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +12517,17 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +12556,17 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12335,11 +12595,17 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12368,11 +12634,17 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +12673,17 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +12712,17 @@
         <v>-17596.12446117999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +12751,17 @@
         <v>-18596.12446117999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +12790,17 @@
         <v>-18595.12446117999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +12829,17 @@
         <v>-13970.39787790999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12566,11 +12868,17 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12599,11 +12907,17 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12635,8 +12949,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12668,8 +12988,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12701,8 +13027,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12731,11 +13063,17 @@
         <v>-14170.67277790999</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12767,8 +13105,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12800,8 +13144,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12833,8 +13183,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12866,8 +13222,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12899,8 +13261,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12932,8 +13300,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12965,8 +13339,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12998,8 +13378,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13031,8 +13417,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13064,8 +13456,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13097,8 +13495,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13130,8 +13534,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13163,8 +13573,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13196,8 +13612,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13229,8 +13651,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13262,8 +13690,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13295,8 +13729,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13328,8 +13768,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13361,8 +13807,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13394,8 +13846,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13427,8 +13885,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13460,8 +13924,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13493,8 +13963,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13526,8 +14002,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13559,8 +14041,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13592,8 +14080,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13625,8 +14119,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13658,8 +14158,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13691,8 +14197,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13724,8 +14236,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13757,8 +14275,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13790,8 +14314,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13823,8 +14353,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13853,15 +14389,17 @@
         <v>-18697.23537791</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>2119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>2119</v>
       </c>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13890,17 +14428,15 @@
         <v>-19966.97597791</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>2119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>2119</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -13931,11 +14467,9 @@
         <v>-16862.97057791</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>2119</v>
       </c>
@@ -15454,7 +15988,7 @@
         <v>-8419.312884529996</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
@@ -15462,11 +15996,11 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>1.014348749410099</v>
+        <v>1</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
@@ -15493,11 +16027,17 @@
         <v>-9491.111484529996</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15526,11 +16066,17 @@
         <v>-9521.111484529996</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15559,11 +16105,17 @@
         <v>-9418.318484529997</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15592,11 +16144,17 @@
         <v>-9007.574784529996</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15625,11 +16183,17 @@
         <v>-9083.928584529996</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15658,11 +16222,17 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15691,11 +16261,17 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15724,11 +16300,17 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +16339,17 @@
         <v>-8521.009584529997</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15790,11 +16378,17 @@
         <v>-8087.888584529996</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15826,8 +16420,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15859,8 +16459,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15892,8 +16498,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15922,11 +16534,17 @@
         <v>-5691.894684529996</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15955,11 +16573,17 @@
         <v>-5713.198684529996</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15991,8 +16615,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16024,8 +16654,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16057,8 +16693,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16090,8 +16732,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16123,8 +16771,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16153,13 +16807,19 @@
         <v>-10416.63068453</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2119</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L462" t="n">
-        <v>1</v>
+        <v>1.027090608777725</v>
       </c>
       <c r="M462" t="inlineStr"/>
     </row>
@@ -16186,7 +16846,7 @@
         <v>-10802.32866736</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16219,7 +16879,7 @@
         <v>-10792.32866736</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16318,7 +16978,7 @@
         <v>-10863.32916736</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16351,7 +17011,7 @@
         <v>-10862.99616736</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16384,7 +17044,7 @@
         <v>-11182.74616736</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16417,7 +17077,7 @@
         <v>-11182.74616736</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16615,7 +17275,7 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16813,7 +17473,7 @@
         <v>-11329.97406736</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16846,7 +17506,7 @@
         <v>-11330.24846736</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16879,7 +17539,7 @@
         <v>-13074.17446736</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16912,7 +17572,7 @@
         <v>-12282.61676736</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16978,7 +17638,7 @@
         <v>-12678.11036736</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17737,7 +18397,7 @@
         <v>-6163.458467359998</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17770,7 +18430,7 @@
         <v>-6163.228467359999</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17803,7 +18463,7 @@
         <v>-6463.228467359999</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
